--- a/demo-easy-excel/src/main/resources/ExcelTest.xlsx
+++ b/demo-easy-excel/src/main/resources/ExcelTest.xlsx
@@ -109,17 +109,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>生日转换测试</t>
+          <t>生日</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>生日</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>年龄</t>
+          <t>存款</t>
         </is>
       </c>
     </row>
@@ -137,13 +132,8 @@
           <t>2011-11-11</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2011-11-11</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>9.0</v>
+      <c r="D2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -160,13 +150,8 @@
           <t>2001-11-01</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2001-11-01</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>19.0</v>
+      <c r="D3" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -183,13 +168,8 @@
           <t>2010-02-07</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2010-02-07</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>10.0</v>
+      <c r="D4" t="n">
+        <v>11.11</v>
       </c>
     </row>
     <row r="5">
@@ -206,13 +186,8 @@
           <t>2011-01-11</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2011-01-11</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>9.0</v>
+      <c r="D5" t="n">
+        <v>10.24</v>
       </c>
     </row>
     <row r="6">
@@ -229,13 +204,8 @@
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-05-12</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.0</v>
+      <c r="D6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -252,12 +222,7 @@
           <t>2010-07-11</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2010-07-11</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" t="n">
         <v>10.0</v>
       </c>
     </row>

--- a/demo-easy-excel/src/main/resources/ExcelTest.xlsx
+++ b/demo-easy-excel/src/main/resources/ExcelTest.xlsx
@@ -214,7 +214,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>quaint6</t>
+          <t>@RequestBody Object search</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/demo-easy-excel/src/main/resources/ExcelTest.xlsx
+++ b/demo-easy-excel/src/main/resources/ExcelTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>序号</t>
   </si>
@@ -31,9 +31,6 @@
     <t>quaint</t>
   </si>
   <si>
-    <t>2011-11-11</t>
-  </si>
-  <si>
     <t>quaint2</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>2010-02-07</t>
-  </si>
-  <si>
-    <t>quaint4</t>
   </si>
   <si>
     <t>2011-01-11</t>
@@ -68,11 +62,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="h&quot;时&quot;mm&quot;分&quot;ss&quot;秒&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -89,6 +84,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -96,31 +113,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +191,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -142,11 +214,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,84 +228,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,6 +256,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -273,169 +304,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,17 +459,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,7 +472,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,11 +492,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,15 +538,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,177 +556,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,10 +1038,13 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="45.1923076923077" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="21" spans="1:4">
       <c r="A1" s="1" t="s">
@@ -1066,8 +1067,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="2">
+        <v>40858.5084722222</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1078,10 +1079,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1089,10 +1090,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4">
         <v>11.11</v>
@@ -1102,11 +1103,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>10.24</v>
@@ -1117,10 +1115,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1128,10 +1126,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>10</v>
